--- a/planilha/operadora.xlsx
+++ b/planilha/operadora.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="241">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Unnamed: 8</t>
   </si>
   <si>
-    <t>Extraï¿½do em 27/04/2023 20:22</t>
+    <t>Extraï¿½do em 28/04/2023 12:32</t>
   </si>
   <si>
     <t>Sistema Integrado de Fiscalizaï¿½ï¿½o - NIP</t>
@@ -61,18 +61,6 @@
     <t>Protocolo</t>
   </si>
   <si>
-    <t>8604036</t>
-  </si>
-  <si>
-    <t>8604069</t>
-  </si>
-  <si>
-    <t>8605179</t>
-  </si>
-  <si>
-    <t>8605345</t>
-  </si>
-  <si>
     <t>8606114</t>
   </si>
   <si>
@@ -235,21 +223,12 @@
     <t>8634778</t>
   </si>
   <si>
+    <t>8636698</t>
+  </si>
+  <si>
     <t>Beneficiï¿½rio</t>
   </si>
   <si>
-    <t>MARLENE NUNES HONDA TAVARES</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO DALPRA</t>
-  </si>
-  <si>
-    <t>RAVI SCHULZ XAVIER DA CRUZ</t>
-  </si>
-  <si>
-    <t>KAYKY BRUNNO SOUZA LOPES</t>
-  </si>
-  <si>
     <t>MÔNICA ALVES GOMES</t>
   </si>
   <si>
@@ -409,21 +388,12 @@
     <t>LUCIANA BEZERRA DA SILVA</t>
   </si>
   <si>
+    <t>MARIO JORGE MARICAUA ANTONACCIO</t>
+  </si>
+  <si>
     <t>CPF</t>
   </si>
   <si>
-    <t>16111834215</t>
-  </si>
-  <si>
-    <t>07147768744</t>
-  </si>
-  <si>
-    <t>22628034719</t>
-  </si>
-  <si>
-    <t>70207991677</t>
-  </si>
-  <si>
     <t>02573399494</t>
   </si>
   <si>
@@ -577,21 +547,10 @@
     <t>71789022487</t>
   </si>
   <si>
+    <t>16041046272</t>
+  </si>
+  <si>
     <t>Descriï¿½ï¿½o da Demanda</t>
-  </si>
-  <si>
-    <t>Beneficiário  questiona a não cobertura para os materiais , para realização do procedimento HISTERECTOMIA TOTAL(conforme pedido medico)_x000D_
-, solicitado em 02/02/2023. Interlocutora informa que medico Dr doutor Sebastião do Hospital Check up não trabalha com o fornecedor da Operadora. Interlocutora informa que não foi disponibilizado nenhum protocolo de atendimento.</t>
-  </si>
-  <si>
-    <t>Interlocutora que se identifica como esposa do beneficiário questiona a não cobertura para MANOMETRIA  O procedimento foi solicitado à operadora no dia 01/10/2022 para realização no município Vitória, Cariacica, Serra ou Vila Velha/ES. A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. Protocolo:42238020230320439339 - Data: 20/03/2023.</t>
-  </si>
-  <si>
-    <t>Interlocutora, que se identifica como mãe do beneficiário, questiona a falta de atendimento para exame de Bera com sedação (conforme guia médica), e nome do médico solicitante Dr. Rodrigo Corsino. A solicitação foi feita à Operadora no mês 01/2023, para realização no município Cariacica/ES. A operadora alega que o pedido está em análise, pois não localizou ainda uma rede credenciada para atendimento. Acrescenta que a operadora forneceu a opção do reembolso mas o valor do exame é de R$ 2.400,00, e após aguardar aproximadamente 3 meses a operadora ainda não apresentou respostas, conforme relato. Protocolo: 42238020230302406468 data: 07/03/2023 - deseja acrescentar: 42238020230410479400.</t>
-  </si>
-  <si>
-    <t>_x000D_
-Interlocutor(a), que se identifica como mãe  do beneficiário, questiona a falta de atendimento para CONSULTA COM PSICOLOGO  A solicitação foi feita à Operadora no dia 26/01/2023 para realização no município  de Uberlândia/MG. A operadora não apresenta resposta ao pedido. Protocolo 42238020230206367392   data 06/02/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Beneficiária, questiona o não atendimento para Atendimento de urgência/emergência. Relata que tentou entrar em contato com a Operadora por meio  dos telefones 3370-6017 / 0800 111 5859 - na data 13/04/2023, em torno das 8h, sem sucesso. Questiona também que o resultado dos exames, realizados há 15 dias, ainda não foram disponibilizados no APP._x000D_
@@ -777,13 +736,13 @@
     <t>Beneficiária, questiona o não atendimento para psicologia - terapia cognitiva comportamental . A solicitação foi feita à Operadora no dia 08/04/2023, no município Gravatá - PE e o agendamento foi realizado para o município Recife - PE, dia 16/04/2023. Protocolo 42238020230427516696 – data 27/04/2023.</t>
   </si>
   <si>
+    <t>fui na sensumed para fazer os exames de RX e RM e obtive a negativa do plano, com retorno de ate 21 dias, sendo que já cumpri todas as carencias do meu plano</t>
+  </si>
+  <si>
     <t>Prazo</t>
   </si>
   <si>
     <t>Respondido</t>
-  </si>
-  <si>
-    <t>SIM</t>
   </si>
   <si>
     <t>NO</t>
@@ -1157,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1245,22 +1204,22 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H8" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I8" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="J8" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1268,31 +1227,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45028.49978009259</v>
+        <v>45029.349375</v>
       </c>
       <c r="C9">
-        <v>12166383</v>
+        <v>12168095</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="J9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1300,31 +1259,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>45028.50217592593</v>
+        <v>45029.4878125</v>
       </c>
       <c r="C10">
-        <v>12166396</v>
+        <v>12168687</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="J10" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1332,31 +1291,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>45028.65506944444</v>
+        <v>45029.56003472222</v>
       </c>
       <c r="C11">
-        <v>12167333</v>
+        <v>12169086</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="J11" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1364,31 +1323,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>45028.67699074074</v>
+        <v>45029.63378472222</v>
       </c>
       <c r="C12">
-        <v>12167445</v>
+        <v>12169516</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="J12" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1396,31 +1355,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45029.349375</v>
+        <v>45029.69349537037</v>
       </c>
       <c r="C13">
-        <v>12168095</v>
+        <v>12169806</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J13" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1428,31 +1387,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>45029.4878125</v>
+        <v>45029.69927083333</v>
       </c>
       <c r="C14">
-        <v>12168687</v>
+        <v>12169830</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1460,31 +1419,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45029.56003472222</v>
+        <v>45029.70760416667</v>
       </c>
       <c r="C15">
-        <v>12169086</v>
+        <v>12169862</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J15" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1492,31 +1451,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45029.63378472222</v>
+        <v>45029.76229166667</v>
       </c>
       <c r="C16">
-        <v>12169516</v>
+        <v>12170051</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J16" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1524,31 +1483,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>45029.69349537037</v>
+        <v>45030.37834490741</v>
       </c>
       <c r="C17">
-        <v>12169806</v>
+        <v>12170407</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J17" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1556,31 +1512,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>45029.69927083333</v>
+        <v>45030.68010416667</v>
       </c>
       <c r="C18">
-        <v>12169830</v>
+        <v>12171907</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J18" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1588,31 +1544,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>45029.70760416667</v>
+        <v>45030.69832175926</v>
       </c>
       <c r="C19">
-        <v>12169862</v>
+        <v>12171995</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J19" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1620,31 +1576,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>45029.76229166667</v>
+        <v>45030.81541666666</v>
       </c>
       <c r="C20">
-        <v>12170051</v>
+        <v>12172275</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J20" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1652,28 +1608,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>45030.37834490741</v>
+        <v>45033.41063657407</v>
       </c>
       <c r="C21">
-        <v>12170407</v>
+        <v>12172837</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J21" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1681,31 +1640,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>45030.68010416667</v>
+        <v>45033.41476851852</v>
       </c>
       <c r="C22">
-        <v>12171907</v>
+        <v>12172860</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1713,31 +1672,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>45030.69832175926</v>
+        <v>45033.46383101852</v>
       </c>
       <c r="C23">
-        <v>12171995</v>
+        <v>12173082</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J23" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1745,31 +1704,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>45030.81541666666</v>
+        <v>45033.53398148148</v>
       </c>
       <c r="C24">
-        <v>12172275</v>
+        <v>12173476</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H24">
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1777,31 +1736,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>45033.41063657407</v>
+        <v>45033.55947916667</v>
       </c>
       <c r="C25">
-        <v>12172837</v>
+        <v>12173633</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1809,31 +1768,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>45033.41476851852</v>
+        <v>45033.57063657408</v>
       </c>
       <c r="C26">
-        <v>12172860</v>
+        <v>12173717</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G26" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J26" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1841,31 +1800,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>45033.46383101852</v>
+        <v>45033.58219907407</v>
       </c>
       <c r="C27">
-        <v>12173082</v>
+        <v>12173788</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G27" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1873,31 +1832,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>45033.53398148148</v>
+        <v>45033.66788194444</v>
       </c>
       <c r="C28">
-        <v>12173476</v>
+        <v>12174377</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1905,31 +1864,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>45033.55947916667</v>
+        <v>45033.70738425926</v>
       </c>
       <c r="C29">
-        <v>12173633</v>
+        <v>12174582</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G29" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1937,31 +1896,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>45033.57063657408</v>
+        <v>45033.89607638889</v>
       </c>
       <c r="C30">
-        <v>12173717</v>
+        <v>12175019</v>
       </c>
       <c r="D30" t="s">
         <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J30" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1969,31 +1928,31 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>45033.58219907407</v>
+        <v>45034.37311342593</v>
       </c>
       <c r="C31">
-        <v>12173788</v>
+        <v>12175201</v>
       </c>
       <c r="D31" t="s">
         <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G31" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H31">
         <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J31" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2001,31 +1960,31 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>45033.66788194444</v>
+        <v>45034.37660879629</v>
       </c>
       <c r="C32">
-        <v>12174377</v>
+        <v>12175213</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H32">
         <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J32" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2033,31 +1992,31 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>45033.70738425926</v>
+        <v>45034.41371527778</v>
       </c>
       <c r="C33">
-        <v>12174582</v>
+        <v>12175368</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H33">
         <v>4</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J33" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2065,31 +2024,31 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>45033.89607638889</v>
+        <v>45034.45064814815</v>
       </c>
       <c r="C34">
-        <v>12175019</v>
+        <v>12175551</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H34">
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J34" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2097,31 +2056,31 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>45034.37311342593</v>
+        <v>45034.45431712963</v>
       </c>
       <c r="C35">
-        <v>12175201</v>
+        <v>12175574</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G35" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J35" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2129,31 +2088,31 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>45034.37660879629</v>
+        <v>45034.52925925926</v>
       </c>
       <c r="C36">
-        <v>12175213</v>
+        <v>12175983</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F36" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G36" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I36" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2161,31 +2120,31 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>45034.41371527778</v>
+        <v>45034.64997685186</v>
       </c>
       <c r="C37">
-        <v>12175368</v>
+        <v>12176717</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G37" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J37" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2193,31 +2152,31 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>45034.45064814815</v>
+        <v>45034.71873842592</v>
       </c>
       <c r="C38">
-        <v>12175551</v>
+        <v>12177034</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G38" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J38" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2225,31 +2184,31 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>45034.45431712963</v>
+        <v>45035.35706018518</v>
       </c>
       <c r="C39">
-        <v>12175574</v>
+        <v>12177575</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F39" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G39" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H39">
         <v>5</v>
       </c>
       <c r="I39" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J39" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2257,31 +2216,31 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>45034.52925925926</v>
+        <v>45035.60951388889</v>
       </c>
       <c r="C40">
-        <v>12175983</v>
+        <v>12178903</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G40" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H40">
         <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J40" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2289,31 +2248,31 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>45034.64997685186</v>
+        <v>45035.62222222222</v>
       </c>
       <c r="C41">
-        <v>12176717</v>
+        <v>12178992</v>
       </c>
       <c r="D41" t="s">
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G41" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H41">
         <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J41" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2321,31 +2280,31 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>45034.71873842592</v>
+        <v>45035.66303240741</v>
       </c>
       <c r="C42">
-        <v>12177034</v>
+        <v>12179220</v>
       </c>
       <c r="D42" t="s">
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F42" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G42" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H42">
         <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J42" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2353,31 +2312,31 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>45035.35706018518</v>
+        <v>45035.71431712963</v>
       </c>
       <c r="C43">
-        <v>12177575</v>
+        <v>12179424</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F43" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G43" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J43" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2385,31 +2344,31 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>45035.60951388889</v>
+        <v>45035.77851851852</v>
       </c>
       <c r="C44">
-        <v>12178903</v>
+        <v>12179645</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F44" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G44" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J44" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2417,31 +2376,31 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>45035.62222222222</v>
+        <v>45036.5390162037</v>
       </c>
       <c r="C45">
-        <v>12178992</v>
+        <v>12180669</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G45" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H45">
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J45" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2449,31 +2408,31 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>45035.66303240741</v>
+        <v>45036.55559027778</v>
       </c>
       <c r="C46">
-        <v>12179220</v>
+        <v>12180752</v>
       </c>
       <c r="D46" t="s">
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G46" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H46">
         <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J46" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2481,31 +2440,31 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>45035.71431712963</v>
+        <v>45040.40141203703</v>
       </c>
       <c r="C47">
-        <v>12179424</v>
+        <v>12182380</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="F47" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="G47" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="H47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I47" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J47" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2513,31 +2472,31 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>45035.77851851852</v>
+        <v>45040.40820601852</v>
       </c>
       <c r="C48">
-        <v>12179645</v>
+        <v>12182409</v>
       </c>
       <c r="D48" t="s">
         <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G48" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I48" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J48" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2545,31 +2504,31 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>45036.5390162037</v>
+        <v>45040.43019675926</v>
       </c>
       <c r="C49">
-        <v>12180669</v>
+        <v>12182516</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G49" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H49">
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J49" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2577,31 +2536,31 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>45036.55559027778</v>
+        <v>45040.65773148148</v>
       </c>
       <c r="C50">
-        <v>12180752</v>
+        <v>12183870</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G50" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H50">
         <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J50" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2609,31 +2568,31 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>45040.40141203703</v>
+        <v>45040.68935185186</v>
       </c>
       <c r="C51">
-        <v>12182380</v>
+        <v>12184044</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="F51" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G51" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J51" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2641,31 +2600,31 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>45040.40820601852</v>
+        <v>45040.71090277778</v>
       </c>
       <c r="C52">
-        <v>12182409</v>
+        <v>12184147</v>
       </c>
       <c r="D52" t="s">
         <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G52" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J52" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2673,31 +2632,31 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>45040.43019675926</v>
+        <v>45041.47012731482</v>
       </c>
       <c r="C53">
-        <v>12182516</v>
+        <v>12185222</v>
       </c>
       <c r="D53" t="s">
         <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F53" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G53" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H53">
         <v>8</v>
       </c>
       <c r="I53" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J53" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2705,31 +2664,31 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>45040.65773148148</v>
+        <v>45041.48047453703</v>
       </c>
       <c r="C54">
-        <v>12183870</v>
+        <v>12185294</v>
       </c>
       <c r="D54" t="s">
         <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F54" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G54" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H54">
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J54" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2737,31 +2696,31 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>45040.68935185186</v>
+        <v>45041.48710648148</v>
       </c>
       <c r="C55">
-        <v>12184044</v>
+        <v>12185344</v>
       </c>
       <c r="D55" t="s">
         <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F55" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G55" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H55">
         <v>8</v>
       </c>
       <c r="I55" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J55" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2769,31 +2728,31 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>45040.71090277778</v>
+        <v>45041.54740740741</v>
       </c>
       <c r="C56">
-        <v>12184147</v>
+        <v>12185693</v>
       </c>
       <c r="D56" t="s">
         <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F56" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G56" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H56">
         <v>8</v>
       </c>
       <c r="I56" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J56" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2801,31 +2760,31 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>45041.47012731482</v>
+        <v>45042.53133101852</v>
       </c>
       <c r="C57">
-        <v>12185222</v>
+        <v>12188132</v>
       </c>
       <c r="D57" t="s">
         <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F57" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G57" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H57">
         <v>9</v>
       </c>
       <c r="I57" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J57" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2833,31 +2792,31 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>45041.48047453703</v>
+        <v>45042.58119212963</v>
       </c>
       <c r="C58">
-        <v>12185294</v>
+        <v>12188425</v>
       </c>
       <c r="D58" t="s">
         <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F58" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G58" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H58">
         <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J58" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2865,31 +2824,28 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>45041.48710648148</v>
+        <v>45042.67297453704</v>
       </c>
       <c r="C59">
-        <v>12185344</v>
+        <v>12189027</v>
       </c>
       <c r="D59" t="s">
         <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
-      </c>
-      <c r="F59" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H59">
         <v>9</v>
       </c>
       <c r="I59" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J59" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2897,31 +2853,31 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>45041.54740740741</v>
+        <v>45043.41513888889</v>
       </c>
       <c r="C60">
-        <v>12185693</v>
+        <v>12189933</v>
       </c>
       <c r="D60" t="s">
         <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F60" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G60" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J60" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2929,31 +2885,31 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>45042.53133101852</v>
+        <v>45043.45592592593</v>
       </c>
       <c r="C61">
-        <v>12188132</v>
+        <v>12190147</v>
       </c>
       <c r="D61" t="s">
         <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F61" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G61" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H61">
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J61" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2961,31 +2917,31 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>45042.58119212963</v>
+        <v>45043.63570601852</v>
       </c>
       <c r="C62">
-        <v>12188425</v>
+        <v>12191185</v>
       </c>
       <c r="D62" t="s">
         <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F62" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G62" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H62">
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J62" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2993,28 +2949,31 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>45042.67297453704</v>
+        <v>45043.65591435185</v>
       </c>
       <c r="C63">
-        <v>12189027</v>
+        <v>12191296</v>
       </c>
       <c r="D63" t="s">
         <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="F63" t="s">
+        <v>176</v>
       </c>
       <c r="G63" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H63">
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J63" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3022,127 +2981,31 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>45043.41513888889</v>
+        <v>45044.51895833333</v>
       </c>
       <c r="C64">
-        <v>12189933</v>
+        <v>12192741</v>
       </c>
       <c r="D64" t="s">
         <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G64" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H64">
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J64" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2">
-        <v>45043.45592592593</v>
-      </c>
-      <c r="C65">
-        <v>12190147</v>
-      </c>
-      <c r="D65" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65" t="s">
-        <v>128</v>
-      </c>
-      <c r="F65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H65">
-        <v>10</v>
-      </c>
-      <c r="I65" t="s">
-        <v>250</v>
-      </c>
-      <c r="J65" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2">
-        <v>45043.63570601852</v>
-      </c>
-      <c r="C66">
-        <v>12191185</v>
-      </c>
-      <c r="D66" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>185</v>
-      </c>
-      <c r="G66" t="s">
-        <v>245</v>
-      </c>
-      <c r="H66">
-        <v>10</v>
-      </c>
-      <c r="I66" t="s">
-        <v>250</v>
-      </c>
-      <c r="J66" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2">
-        <v>45043.65591435185</v>
-      </c>
-      <c r="C67">
-        <v>12191296</v>
-      </c>
-      <c r="D67" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" t="s">
-        <v>130</v>
-      </c>
-      <c r="F67" t="s">
-        <v>186</v>
-      </c>
-      <c r="G67" t="s">
-        <v>246</v>
-      </c>
-      <c r="H67">
-        <v>10</v>
-      </c>
-      <c r="I67" t="s">
-        <v>250</v>
-      </c>
-      <c r="J67" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/planilha/operadora.xlsx
+++ b/planilha/operadora.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="215">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Unnamed: 8</t>
   </si>
   <si>
-    <t>Extraï¿½do em 28/04/2023 12:32</t>
+    <t>Extraï¿½do em 29/04/2023 17:12</t>
   </si>
   <si>
     <t>Sistema Integrado de Fiscalizaï¿½ï¿½o - NIP</t>
@@ -61,30 +61,6 @@
     <t>Protocolo</t>
   </si>
   <si>
-    <t>8606114</t>
-  </si>
-  <si>
-    <t>8606848</t>
-  </si>
-  <si>
-    <t>8607367</t>
-  </si>
-  <si>
-    <t>8607900</t>
-  </si>
-  <si>
-    <t>8608265</t>
-  </si>
-  <si>
-    <t>8608288</t>
-  </si>
-  <si>
-    <t>8608371</t>
-  </si>
-  <si>
-    <t>8608573</t>
-  </si>
-  <si>
     <t>8609005</t>
   </si>
   <si>
@@ -226,120 +202,102 @@
     <t>8636698</t>
   </si>
   <si>
+    <t>8637495</t>
+  </si>
+  <si>
     <t>Beneficiï¿½rio</t>
   </si>
   <si>
-    <t>MÔNICA ALVES GOMES</t>
-  </si>
-  <si>
-    <t>MARCIO CANDIDO DE OLIVEIRA</t>
+    <t>HEITOR LIMA DA SILVA</t>
+  </si>
+  <si>
+    <t>SABRINA NAZARETH BRAZ DOS SANTOS RODRIGUES</t>
+  </si>
+  <si>
+    <t>IANA CAROLINA BASANTE DE ALBUQUERQUE</t>
+  </si>
+  <si>
+    <t>CLEIDE DE LIMA ALVES</t>
+  </si>
+  <si>
+    <t>CINTHIA KARLA OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>JOSINEIDE LUIZA DE OLIVEIRA VALENTIM</t>
+  </si>
+  <si>
+    <t>JOANNA MORAIS PEREIRA DO MONTE MENDES</t>
+  </si>
+  <si>
+    <t>DAIANA KELLY SOUZA DA SILVA</t>
+  </si>
+  <si>
+    <t>JULIANA TORREAO DE SA MARQUES</t>
+  </si>
+  <si>
+    <t>HEITOR GUILHERME ALVES COSTA</t>
+  </si>
+  <si>
+    <t>MARIA CLARA VASCONCELOS CARVALHO</t>
+  </si>
+  <si>
+    <t>JULIA ROCHA DE ALBUQUERQUE ERNANI SOUZA</t>
+  </si>
+  <si>
+    <t>WERISLAYNI OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>GUILHERME MIGUEL ANGOTI DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ISABELA LORRANE SANTOS ANGOTI PIMENTEL</t>
+  </si>
+  <si>
+    <t>IVENY MARQUES DA COSTA GOMES</t>
+  </si>
+  <si>
+    <t>CAUA HENRIQUE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>VANIA VIEIRA SOUTO MAIOR</t>
+  </si>
+  <si>
+    <t>BRUNO RUAN DE SOUZA</t>
+  </si>
+  <si>
+    <t>MAICKEL DOUGLAS SANTOS ROCHA</t>
+  </si>
+  <si>
+    <t>MAITE BEATRIZ GUIMARÃES RIBEIRO</t>
+  </si>
+  <si>
+    <t>MATHEUS FARIA DAMM</t>
+  </si>
+  <si>
+    <t>THEO TENORIO FERREIRA</t>
+  </si>
+  <si>
+    <t>GABRIELLE DOS SANTOS BONIFÁCIO</t>
+  </si>
+  <si>
+    <t>MOEMA DAYANNE TORRES SIQUEIRA XAVIER</t>
+  </si>
+  <si>
+    <t>ZEINA BARROS DE ARAUJO</t>
+  </si>
+  <si>
+    <t>RENATA FERNANDA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>CRISTIANE MARIA NUNES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>ROMERO MARQUES</t>
   </si>
   <si>
     <t>BARBARA KELLY CARNEIRO LEÃO RODRIGUES</t>
   </si>
   <si>
-    <t>ANALIS SOARES SILVA</t>
-  </si>
-  <si>
-    <t>MAICKSON CAIQUE VENANCIO</t>
-  </si>
-  <si>
-    <t>EMILLE FERNANDES CORREA</t>
-  </si>
-  <si>
-    <t>MILENA FREIRE TRAVASSOS COUSSEIRO</t>
-  </si>
-  <si>
-    <t>ROGERIA DORALICE SOARES DA SILVA</t>
-  </si>
-  <si>
-    <t>HEITOR LIMA DA SILVA</t>
-  </si>
-  <si>
-    <t>SABRINA NAZARETH BRAZ DOS SANTOS RODRIGUES</t>
-  </si>
-  <si>
-    <t>IANA CAROLINA BASANTE DE ALBUQUERQUE</t>
-  </si>
-  <si>
-    <t>CLEIDE DE LIMA ALVES</t>
-  </si>
-  <si>
-    <t>CINTHIA KARLA OLIVEIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>JOSINEIDE LUIZA DE OLIVEIRA VALENTIM</t>
-  </si>
-  <si>
-    <t>JOANNA MORAIS PEREIRA DO MONTE MENDES</t>
-  </si>
-  <si>
-    <t>DAIANA KELLY SOUZA DA SILVA</t>
-  </si>
-  <si>
-    <t>JULIANA TORREAO DE SA MARQUES</t>
-  </si>
-  <si>
-    <t>HEITOR GUILHERME ALVES COSTA</t>
-  </si>
-  <si>
-    <t>MARIA CLARA VASCONCELOS CARVALHO</t>
-  </si>
-  <si>
-    <t>JULIA ROCHA DE ALBUQUERQUE ERNANI SOUZA</t>
-  </si>
-  <si>
-    <t>WERISLAYNI OLIVEIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>GUILHERME MIGUEL ANGOTI DOS SANTOS</t>
-  </si>
-  <si>
-    <t>ISABELA LORRANE SANTOS ANGOTI PIMENTEL</t>
-  </si>
-  <si>
-    <t>IVENY MARQUES DA COSTA GOMES</t>
-  </si>
-  <si>
-    <t>CAUA HENRIQUE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>VANIA VIEIRA SOUTO MAIOR</t>
-  </si>
-  <si>
-    <t>BRUNO RUAN DE SOUZA</t>
-  </si>
-  <si>
-    <t>MAICKEL DOUGLAS SANTOS ROCHA</t>
-  </si>
-  <si>
-    <t>MAITE BEATRIZ GUIMARÃES RIBEIRO</t>
-  </si>
-  <si>
-    <t>MATHEUS FARIA DAMM</t>
-  </si>
-  <si>
-    <t>THEO TENORIO FERREIRA</t>
-  </si>
-  <si>
-    <t>GABRIELLE DOS SANTOS BONIFÁCIO</t>
-  </si>
-  <si>
-    <t>MOEMA DAYANNE TORRES SIQUEIRA XAVIER</t>
-  </si>
-  <si>
-    <t>ZEINA BARROS DE ARAUJO</t>
-  </si>
-  <si>
-    <t>RENATA FERNANDA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>CRISTIANE MARIA NUNES DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>ROMERO MARQUES</t>
-  </si>
-  <si>
     <t>RILDEMBERG LIMA DA COSTA</t>
   </si>
   <si>
@@ -391,117 +349,99 @@
     <t>MARIO JORGE MARICAUA ANTONACCIO</t>
   </si>
   <si>
+    <t>NADIA ROSANA SANTANA FREIRE</t>
+  </si>
+  <si>
     <t>CPF</t>
   </si>
   <si>
-    <t>02573399494</t>
-  </si>
-  <si>
-    <t>04979189431</t>
+    <t>05960065436</t>
+  </si>
+  <si>
+    <t>06646531463</t>
+  </si>
+  <si>
+    <t>22696658803</t>
+  </si>
+  <si>
+    <t>03905800403</t>
+  </si>
+  <si>
+    <t>41678206415</t>
+  </si>
+  <si>
+    <t>01401859410</t>
+  </si>
+  <si>
+    <t>06547794490</t>
+  </si>
+  <si>
+    <t>86404725487</t>
+  </si>
+  <si>
+    <t>15965704402</t>
+  </si>
+  <si>
+    <t>11898974586</t>
+  </si>
+  <si>
+    <t>17278581400</t>
+  </si>
+  <si>
+    <t>70282814426</t>
+  </si>
+  <si>
+    <t>15293127608</t>
+  </si>
+  <si>
+    <t>11041195605</t>
+  </si>
+  <si>
+    <t>40184650410</t>
+  </si>
+  <si>
+    <t>18608070626</t>
+  </si>
+  <si>
+    <t>44895852415</t>
+  </si>
+  <si>
+    <t>08930395430</t>
+  </si>
+  <si>
+    <t>10722818483</t>
+  </si>
+  <si>
+    <t>09267243209</t>
+  </si>
+  <si>
+    <t>18738007703</t>
+  </si>
+  <si>
+    <t>71265711437</t>
+  </si>
+  <si>
+    <t>70472354426</t>
+  </si>
+  <si>
+    <t>09354915469</t>
+  </si>
+  <si>
+    <t>21421684268</t>
+  </si>
+  <si>
+    <t>07037594423</t>
+  </si>
+  <si>
+    <t>49706926453</t>
+  </si>
+  <si>
+    <t>16951670404</t>
   </si>
   <si>
     <t>03752083484</t>
   </si>
   <si>
-    <t>17815299490</t>
-  </si>
-  <si>
-    <t>42021128814</t>
-  </si>
-  <si>
-    <t>15411404789</t>
-  </si>
-  <si>
-    <t>02531839445</t>
-  </si>
-  <si>
-    <t>04799668420</t>
-  </si>
-  <si>
-    <t>05960065436</t>
-  </si>
-  <si>
-    <t>06646531463</t>
-  </si>
-  <si>
-    <t>22696658803</t>
-  </si>
-  <si>
-    <t>03905800403</t>
-  </si>
-  <si>
-    <t>41678206415</t>
-  </si>
-  <si>
-    <t>01401859410</t>
-  </si>
-  <si>
-    <t>06547794490</t>
-  </si>
-  <si>
-    <t>86404725487</t>
-  </si>
-  <si>
-    <t>15965704402</t>
-  </si>
-  <si>
-    <t>11898974586</t>
-  </si>
-  <si>
-    <t>17278581400</t>
-  </si>
-  <si>
-    <t>70282814426</t>
-  </si>
-  <si>
-    <t>15293127608</t>
-  </si>
-  <si>
-    <t>11041195605</t>
-  </si>
-  <si>
-    <t>40184650410</t>
-  </si>
-  <si>
-    <t>18608070626</t>
-  </si>
-  <si>
-    <t>44895852415</t>
-  </si>
-  <si>
-    <t>08930395430</t>
-  </si>
-  <si>
-    <t>10722818483</t>
-  </si>
-  <si>
-    <t>09267243209</t>
-  </si>
-  <si>
-    <t>18738007703</t>
-  </si>
-  <si>
-    <t>71265711437</t>
-  </si>
-  <si>
-    <t>70472354426</t>
-  </si>
-  <si>
-    <t>09354915469</t>
-  </si>
-  <si>
-    <t>21421684268</t>
-  </si>
-  <si>
-    <t>07037594423</t>
-  </si>
-  <si>
-    <t>49706926453</t>
-  </si>
-  <si>
-    <t>16951670404</t>
-  </si>
-  <si>
     <t>03549946465</t>
   </si>
   <si>
@@ -550,36 +490,10 @@
     <t>16041046272</t>
   </si>
   <si>
+    <t>36055972468</t>
+  </si>
+  <si>
     <t>Descriï¿½ï¿½o da Demanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beneficiária, questiona o não atendimento para Atendimento de urgência/emergência. Relata que tentou entrar em contato com a Operadora por meio  dos telefones 3370-6017 / 0800 111 5859 - na data 13/04/2023, em torno das 8h, sem sucesso. Questiona também que o resultado dos exames, realizados há 15 dias, ainda não foram disponibilizados no APP._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beneficiário, questiona o prazo de atendimento para usg orgão superficiais. A operadora autorizou o serviço e não agendou dentro do prazo máximo previsto na RN nº 566/2022. Protocolo 42238020230322445573 data: 22/03/2023._x000D_
-_x000D_
-</t>
-  </si>
-  <si>
-    <t>Beneficiária, questiona a falta de atendimento para bloqueio de nervo periférico(conforme guia médica)   punção vascular(conforme guia médica) , e nome do médico solicitante não tem. A solicitação foi feita à Operadora no dia 21/01/2023, para realização no município Recife. A operadora alega que o pedido está em análise. Protocolo 42238020230327454044  – data 27/03/2023.</t>
-  </si>
-  <si>
-    <t>Interlocutora, que se identifica como  mãe da beneficiária, questiona a não cobertura para Atendimento de urgência pediátrico. O procedimento foi solicitado à operadora no dia 13/04/2023, para realização no município Recife- PE e a operadora indicou prestadores que não realizam o procedimento. Protocolo 42238020230413488878 data: 13/04/2023 .</t>
-  </si>
-  <si>
-    <t>Beneficiário, questiona a falta de atendimento para CPO -CIRURGICO DE VARIZES MMI(Varizes - tratamento cirúrgico de dois membros)  . A solicitação foi feita à Operadora no dia 04/03/2023 , para realização no município Recife, PE. A operadora alega que o pedido está em análise e não apresenta resposta ao pedido. Protocolo: 4223802023041248441  – data 12/04/2023</t>
-  </si>
-  <si>
-    <t>Interlocutor, que se identifica como esposo da beneficiária questiona o não atendimento para Urgência e emergência em pronto atendimento. Ressalta que a beneficiária é gestante. A solicitação foi feita à Operadora em 03/2023, no município São Mateus e o agendamento foi realizado para o município Vitória. Protocolo 422380202304134894444 Data 13/04/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precisei ser atendida na emergência do Hospital Português no Recife e a médica solicitou uma tomografia. Fiz o exame normalmente, não fui informada de nenhuma negativa por parte do plano, mas agora o Hospital quer que eu pague 800,00 reais pelo exame, pois o plano negou a autorização. Só que o exame foi feito. _x000D_
-Logo após observar o exame, a médica pediu meu internamento para tratamento de uma pielonefrite, mas o plano negou o internamento. _x000D_
-O documento que o hospital envia me cobrando é da negativa do internamento. Não do exame. </t>
-  </si>
-  <si>
-    <t>Beneficiária, questiona a não cobertura para os material  JOGO TUBO ALTA DIPOLAR , para realização do procedimento COLOCAÇÃO DE DIU , solicitado em 16/03/2023 . Protocolo  42238020230412484463 DATA 12/04/2023</t>
   </si>
   <si>
     <t>Interlocutora, que se identifica como mãe do beneficiário, questiona a falta de atendimento para Pronto Atendimento. A solicitação foi feita à Operadora no dia 13/04/2023, para realização no município Recife. A operadora não apresenta resposta ao pedido. Protocolo: 42238020230413488611   data: 13/04/2023.</t>
@@ -737,6 +651,9 @@
   </si>
   <si>
     <t>fui na sensumed para fazer os exames de RX e RM e obtive a negativa do plano, com retorno de ate 21 dias, sendo que já cumpri todas as carencias do meu plano</t>
+  </si>
+  <si>
+    <t>Beneficiária, informa que houve solicitação de exclusão doa beneficiária de plano coletivo por adesão, em 28/04/2023, entretanto, até a presente data, a operadora negou o cancelamento informando que precisa aguardar ate a data 15/05/2023 para cancelar e que terá que fazer uma carta a próprio punho. Contato feito pelo WhatsApp. Beneficiaria não sabe a associação vinculada ao plano informa que não foi informado e ela não consegue achar, a mesma alega não ter condições de pagar.</t>
   </si>
   <si>
     <t>Prazo</t>
@@ -1116,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,22 +1121,22 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="I8" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="J8" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1227,31 +1144,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45029.349375</v>
+        <v>45030.37834490741</v>
       </c>
       <c r="C9">
-        <v>12168095</v>
+        <v>12170407</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1259,31 +1173,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>45029.4878125</v>
+        <v>45030.68010416667</v>
       </c>
       <c r="C10">
-        <v>12168687</v>
+        <v>12171907</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J10" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1291,31 +1205,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>45029.56003472222</v>
+        <v>45030.69832175926</v>
       </c>
       <c r="C11">
-        <v>12169086</v>
+        <v>12171995</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J11" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1323,31 +1237,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>45029.63378472222</v>
+        <v>45030.81541666666</v>
       </c>
       <c r="C12">
-        <v>12169516</v>
+        <v>12172275</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J12" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1355,31 +1269,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45029.69349537037</v>
+        <v>45033.41063657407</v>
       </c>
       <c r="C13">
-        <v>12169806</v>
+        <v>12172837</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J13" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1387,31 +1301,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>45029.69927083333</v>
+        <v>45033.41476851852</v>
       </c>
       <c r="C14">
-        <v>12169830</v>
+        <v>12172860</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J14" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1419,31 +1333,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45029.70760416667</v>
+        <v>45033.46383101852</v>
       </c>
       <c r="C15">
-        <v>12169862</v>
+        <v>12173082</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J15" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1451,31 +1365,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45029.76229166667</v>
+        <v>45033.53398148148</v>
       </c>
       <c r="C16">
-        <v>12170051</v>
+        <v>12173476</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J16" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1483,28 +1397,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>45030.37834490741</v>
+        <v>45033.55947916667</v>
       </c>
       <c r="C17">
-        <v>12170407</v>
+        <v>12173633</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J17" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1512,31 +1429,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>45030.68010416667</v>
+        <v>45033.57063657408</v>
       </c>
       <c r="C18">
-        <v>12171907</v>
+        <v>12173717</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J18" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1544,31 +1461,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>45030.69832175926</v>
+        <v>45033.58219907407</v>
       </c>
       <c r="C19">
-        <v>12171995</v>
+        <v>12173788</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1576,31 +1493,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>45030.81541666666</v>
+        <v>45033.66788194444</v>
       </c>
       <c r="C20">
-        <v>12172275</v>
+        <v>12174377</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1608,31 +1525,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>45033.41063657407</v>
+        <v>45033.70738425926</v>
       </c>
       <c r="C21">
-        <v>12172837</v>
+        <v>12174582</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1640,31 +1557,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>45033.41476851852</v>
+        <v>45033.89607638889</v>
       </c>
       <c r="C22">
-        <v>12172860</v>
+        <v>12175019</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1672,31 +1589,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>45033.46383101852</v>
+        <v>45034.37311342593</v>
       </c>
       <c r="C23">
-        <v>12173082</v>
+        <v>12175201</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1704,31 +1621,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>45033.53398148148</v>
+        <v>45034.37660879629</v>
       </c>
       <c r="C24">
-        <v>12173476</v>
+        <v>12175213</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1736,31 +1653,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>45033.55947916667</v>
+        <v>45034.41371527778</v>
       </c>
       <c r="C25">
-        <v>12173633</v>
+        <v>12175368</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1768,31 +1685,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>45033.57063657408</v>
+        <v>45034.45064814815</v>
       </c>
       <c r="C26">
-        <v>12173717</v>
+        <v>12175551</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1800,31 +1717,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>45033.58219907407</v>
+        <v>45034.45431712963</v>
       </c>
       <c r="C27">
-        <v>12173788</v>
+        <v>12175574</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G27" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1832,31 +1749,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>45033.66788194444</v>
+        <v>45034.52925925926</v>
       </c>
       <c r="C28">
-        <v>12174377</v>
+        <v>12175983</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1864,31 +1781,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>45033.70738425926</v>
+        <v>45034.64997685186</v>
       </c>
       <c r="C29">
-        <v>12174582</v>
+        <v>12176717</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G29" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1896,31 +1813,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>45033.89607638889</v>
+        <v>45034.71873842592</v>
       </c>
       <c r="C30">
-        <v>12175019</v>
+        <v>12177034</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1928,31 +1845,31 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>45034.37311342593</v>
+        <v>45035.35706018518</v>
       </c>
       <c r="C31">
-        <v>12175201</v>
+        <v>12177575</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G31" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J31" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1960,31 +1877,31 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>45034.37660879629</v>
+        <v>45035.60951388889</v>
       </c>
       <c r="C32">
-        <v>12175213</v>
+        <v>12178903</v>
       </c>
       <c r="D32" t="s">
         <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G32" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J32" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1992,31 +1909,31 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>45034.41371527778</v>
+        <v>45035.62222222222</v>
       </c>
       <c r="C33">
-        <v>12175368</v>
+        <v>12178992</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J33" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2024,31 +1941,31 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>45034.45064814815</v>
+        <v>45035.66303240741</v>
       </c>
       <c r="C34">
-        <v>12175551</v>
+        <v>12179220</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J34" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2056,31 +1973,31 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>45034.45431712963</v>
+        <v>45035.71431712963</v>
       </c>
       <c r="C35">
-        <v>12175574</v>
+        <v>12179424</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G35" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J35" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2088,31 +2005,31 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>45034.52925925926</v>
+        <v>45035.77851851852</v>
       </c>
       <c r="C36">
-        <v>12175983</v>
+        <v>12179645</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G36" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J36" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2120,31 +2037,31 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>45034.64997685186</v>
+        <v>45036.5390162037</v>
       </c>
       <c r="C37">
-        <v>12176717</v>
+        <v>12180669</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G37" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J37" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2152,31 +2069,31 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>45034.71873842592</v>
+        <v>45036.55559027778</v>
       </c>
       <c r="C38">
-        <v>12177034</v>
+        <v>12180752</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J38" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2184,31 +2101,31 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>45035.35706018518</v>
+        <v>45040.40141203703</v>
       </c>
       <c r="C39">
-        <v>12177575</v>
+        <v>12182380</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G39" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I39" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J39" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2216,31 +2133,31 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>45035.60951388889</v>
+        <v>45040.40820601852</v>
       </c>
       <c r="C40">
-        <v>12178903</v>
+        <v>12182409</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F40" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G40" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I40" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J40" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2248,31 +2165,31 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>45035.62222222222</v>
+        <v>45040.43019675926</v>
       </c>
       <c r="C41">
-        <v>12178992</v>
+        <v>12182516</v>
       </c>
       <c r="D41" t="s">
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F41" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G41" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J41" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2280,31 +2197,31 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>45035.66303240741</v>
+        <v>45040.65773148148</v>
       </c>
       <c r="C42">
-        <v>12179220</v>
+        <v>12183870</v>
       </c>
       <c r="D42" t="s">
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G42" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I42" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J42" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2312,31 +2229,31 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>45035.71431712963</v>
+        <v>45040.68935185186</v>
       </c>
       <c r="C43">
-        <v>12179424</v>
+        <v>12184044</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G43" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J43" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2344,31 +2261,31 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>45035.77851851852</v>
+        <v>45040.71090277778</v>
       </c>
       <c r="C44">
-        <v>12179645</v>
+        <v>12184147</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G44" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J44" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2376,31 +2293,31 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>45036.5390162037</v>
+        <v>45041.47012731482</v>
       </c>
       <c r="C45">
-        <v>12180669</v>
+        <v>12185222</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F45" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G45" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="H45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I45" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J45" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2408,31 +2325,31 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>45036.55559027778</v>
+        <v>45041.48047453703</v>
       </c>
       <c r="C46">
-        <v>12180752</v>
+        <v>12185294</v>
       </c>
       <c r="D46" t="s">
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G46" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I46" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J46" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2440,31 +2357,31 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>45040.40141203703</v>
+        <v>45041.48710648148</v>
       </c>
       <c r="C47">
-        <v>12182380</v>
+        <v>12185344</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="G47" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I47" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J47" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2472,31 +2389,31 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>45040.40820601852</v>
+        <v>45041.54740740741</v>
       </c>
       <c r="C48">
-        <v>12182409</v>
+        <v>12185693</v>
       </c>
       <c r="D48" t="s">
         <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G48" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I48" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J48" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2504,31 +2421,31 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>45040.43019675926</v>
+        <v>45042.53133101852</v>
       </c>
       <c r="C49">
-        <v>12182516</v>
+        <v>12188132</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F49" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G49" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I49" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J49" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2536,31 +2453,31 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>45040.65773148148</v>
+        <v>45042.58119212963</v>
       </c>
       <c r="C50">
-        <v>12183870</v>
+        <v>12188425</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F50" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G50" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I50" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J50" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2568,31 +2485,28 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>45040.68935185186</v>
+        <v>45042.67297453704</v>
       </c>
       <c r="C51">
-        <v>12184044</v>
+        <v>12189027</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
-      </c>
-      <c r="F51" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="G51" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="H51">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I51" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J51" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2600,31 +2514,31 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>45040.71090277778</v>
+        <v>45043.41513888889</v>
       </c>
       <c r="C52">
-        <v>12184147</v>
+        <v>12189933</v>
       </c>
       <c r="D52" t="s">
         <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F52" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G52" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="H52">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J52" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2632,31 +2546,31 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>45041.47012731482</v>
+        <v>45043.45592592593</v>
       </c>
       <c r="C53">
-        <v>12185222</v>
+        <v>12190147</v>
       </c>
       <c r="D53" t="s">
         <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G53" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="H53">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J53" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2664,31 +2578,31 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>45041.48047453703</v>
+        <v>45043.63570601852</v>
       </c>
       <c r="C54">
-        <v>12185294</v>
+        <v>12191185</v>
       </c>
       <c r="D54" t="s">
         <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F54" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="G54" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="H54">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J54" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2696,31 +2610,31 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>45041.48710648148</v>
+        <v>45043.65591435185</v>
       </c>
       <c r="C55">
-        <v>12185344</v>
+        <v>12191296</v>
       </c>
       <c r="D55" t="s">
         <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G55" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="H55">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J55" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2728,31 +2642,31 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>45041.54740740741</v>
+        <v>45044.51895833333</v>
       </c>
       <c r="C56">
-        <v>12185693</v>
+        <v>12192741</v>
       </c>
       <c r="D56" t="s">
         <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F56" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G56" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="H56">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J56" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2760,252 +2674,31 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>45042.53133101852</v>
+        <v>45044.67462962963</v>
       </c>
       <c r="C57">
-        <v>12188132</v>
+        <v>12193483</v>
       </c>
       <c r="D57" t="s">
         <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G57" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J57" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2">
-        <v>45042.58119212963</v>
-      </c>
-      <c r="C58">
-        <v>12188425</v>
-      </c>
-      <c r="D58" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" t="s">
-        <v>118</v>
-      </c>
-      <c r="F58" t="s">
-        <v>172</v>
-      </c>
-      <c r="G58" t="s">
-        <v>228</v>
-      </c>
-      <c r="H58">
-        <v>9</v>
-      </c>
-      <c r="I58" t="s">
-        <v>237</v>
-      </c>
-      <c r="J58" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2">
-        <v>45042.67297453704</v>
-      </c>
-      <c r="C59">
-        <v>12189027</v>
-      </c>
-      <c r="D59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" t="s">
-        <v>229</v>
-      </c>
-      <c r="H59">
-        <v>9</v>
-      </c>
-      <c r="I59" t="s">
-        <v>237</v>
-      </c>
-      <c r="J59" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2">
-        <v>45043.41513888889</v>
-      </c>
-      <c r="C60">
-        <v>12189933</v>
-      </c>
-      <c r="D60" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F60" t="s">
-        <v>173</v>
-      </c>
-      <c r="G60" t="s">
-        <v>230</v>
-      </c>
-      <c r="H60">
-        <v>10</v>
-      </c>
-      <c r="I60" t="s">
-        <v>237</v>
-      </c>
-      <c r="J60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2">
-        <v>45043.45592592593</v>
-      </c>
-      <c r="C61">
-        <v>12190147</v>
-      </c>
-      <c r="D61" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>174</v>
-      </c>
-      <c r="G61" t="s">
-        <v>231</v>
-      </c>
-      <c r="H61">
-        <v>10</v>
-      </c>
-      <c r="I61" t="s">
-        <v>237</v>
-      </c>
-      <c r="J61" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2">
-        <v>45043.63570601852</v>
-      </c>
-      <c r="C62">
-        <v>12191185</v>
-      </c>
-      <c r="D62" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" t="s">
-        <v>122</v>
-      </c>
-      <c r="F62" t="s">
-        <v>175</v>
-      </c>
-      <c r="G62" t="s">
-        <v>232</v>
-      </c>
-      <c r="H62">
-        <v>10</v>
-      </c>
-      <c r="I62" t="s">
-        <v>237</v>
-      </c>
-      <c r="J62" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2">
-        <v>45043.65591435185</v>
-      </c>
-      <c r="C63">
-        <v>12191296</v>
-      </c>
-      <c r="D63" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" t="s">
-        <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>176</v>
-      </c>
-      <c r="G63" t="s">
-        <v>233</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-      <c r="I63" t="s">
-        <v>237</v>
-      </c>
-      <c r="J63" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2">
-        <v>45044.51895833333</v>
-      </c>
-      <c r="C64">
-        <v>12192741</v>
-      </c>
-      <c r="D64" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" t="s">
-        <v>124</v>
-      </c>
-      <c r="F64" t="s">
-        <v>177</v>
-      </c>
-      <c r="G64" t="s">
-        <v>234</v>
-      </c>
-      <c r="H64">
-        <v>10</v>
-      </c>
-      <c r="I64" t="s">
-        <v>237</v>
-      </c>
-      <c r="J64" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
